--- a/Zeitplan/Aktueller Zeitplan.xlsx
+++ b/Zeitplan/Aktueller Zeitplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\Unipraktikum\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Info\Projects\Uniprojekt\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5C5B984-9929-400B-AD68-5403D32BB42E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A2D83F-E665-43D0-BD8B-438B1C0D8F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" xr2:uid="{3BCD9E55-44D3-4FC7-AA79-02F85DDF559B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
   <si>
     <t xml:space="preserve">Tag </t>
   </si>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A74EC-D31E-49F0-BF6D-A9373D7AB90E}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -720,7 +720,7 @@
       <c r="H4" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>38</v>
       </c>
       <c r="J4" s="3" t="s">
@@ -770,6 +770,9 @@
       <c r="I5" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="J5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -799,6 +802,10 @@
       <c r="I6" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="J6" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="K6" s="3"/>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -828,6 +835,9 @@
       <c r="I7" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="J7" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -857,6 +867,9 @@
       <c r="I8" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="J8" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -884,6 +897,9 @@
         <v>32</v>
       </c>
       <c r="I9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Zeitplan/Aktueller Zeitplan.xlsx
+++ b/Zeitplan/Aktueller Zeitplan.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Info\Projects\Uniprojekt\Zeitplan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Info\Projects\UniprojektGitHub\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1A2D83F-E665-43D0-BD8B-438B1C0D8F3B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFDF292-76D3-498C-A2FE-05988195E08B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" xr2:uid="{3BCD9E55-44D3-4FC7-AA79-02F85DDF559B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
   <si>
     <t xml:space="preserve">Tag </t>
   </si>
@@ -531,7 +531,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -773,6 +773,9 @@
       <c r="J5" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="K5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -805,7 +808,9 @@
       <c r="J6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K6" s="3"/>
+      <c r="K6" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -838,6 +843,9 @@
       <c r="J7" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="K7" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -870,6 +878,9 @@
       <c r="J8" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="K8" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -900,6 +911,9 @@
         <v>32</v>
       </c>
       <c r="J9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Zeitplan/Aktueller Zeitplan.xlsx
+++ b/Zeitplan/Aktueller Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Info\Projects\UniprojektGitHub\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EFDF292-76D3-498C-A2FE-05988195E08B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC608FB-9FE2-480D-A309-4E7125A45196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" xr2:uid="{3BCD9E55-44D3-4FC7-AA79-02F85DDF559B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
   <si>
     <t xml:space="preserve">Tag </t>
   </si>
@@ -531,7 +531,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -776,6 +776,9 @@
       <c r="K5" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="L5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -811,6 +814,9 @@
       <c r="K6" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="L6" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -846,6 +852,9 @@
       <c r="K7" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="L7" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -914,6 +923,9 @@
         <v>32</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Zeitplan/Aktueller Zeitplan.xlsx
+++ b/Zeitplan/Aktueller Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Info\Projects\UniprojektGitHub\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EC608FB-9FE2-480D-A309-4E7125A45196}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623BAF30-597D-4CEB-AF56-AC8F4E33C054}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" xr2:uid="{3BCD9E55-44D3-4FC7-AA79-02F85DDF559B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
   <si>
     <t xml:space="preserve">Tag </t>
   </si>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A74EC-D31E-49F0-BF6D-A9373D7AB90E}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -779,6 +779,9 @@
       <c r="L5" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="M5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -817,6 +820,9 @@
       <c r="L6" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="M6" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -855,6 +861,9 @@
       <c r="L7" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="M7" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -890,6 +899,12 @@
       <c r="K8" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="L8" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M8" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -926,6 +941,9 @@
         <v>32</v>
       </c>
       <c r="L9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Zeitplan/Aktueller Zeitplan.xlsx
+++ b/Zeitplan/Aktueller Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Info\Projects\UniprojektGitHub\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{623BAF30-597D-4CEB-AF56-AC8F4E33C054}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8F9275-D721-4458-9A09-2464DF685DD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" xr2:uid="{3BCD9E55-44D3-4FC7-AA79-02F85DDF559B}"/>
   </bookViews>
@@ -531,7 +531,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>

--- a/Zeitplan/Aktueller Zeitplan.xlsx
+++ b/Zeitplan/Aktueller Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Info\Projects\UniprojektGitHub\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF8F9275-D721-4458-9A09-2464DF685DD6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1A5080-E8C3-4A1C-B4F3-682BCB18EAB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" xr2:uid="{3BCD9E55-44D3-4FC7-AA79-02F85DDF559B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
   <si>
     <t xml:space="preserve">Tag </t>
   </si>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A74EC-D31E-49F0-BF6D-A9373D7AB90E}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -782,6 +782,9 @@
       <c r="M5" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="N5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -823,6 +826,9 @@
       <c r="M6" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="N6" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -864,6 +870,9 @@
       <c r="M7" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="N7" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -905,6 +914,9 @@
       <c r="M8" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="N8" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -944,6 +956,9 @@
         <v>32</v>
       </c>
       <c r="M9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Zeitplan/Aktueller Zeitplan.xlsx
+++ b/Zeitplan/Aktueller Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Info\Projects\UniprojektGitHub\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D1A5080-E8C3-4A1C-B4F3-682BCB18EAB7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B90B7F-E173-4F7A-9A7C-9DD6733E521C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" xr2:uid="{3BCD9E55-44D3-4FC7-AA79-02F85DDF559B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
   <si>
     <t xml:space="preserve">Tag </t>
   </si>
@@ -530,8 +530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A74EC-D31E-49F0-BF6D-A9373D7AB90E}">
   <dimension ref="A1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -785,6 +785,9 @@
       <c r="N5" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="O5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -829,6 +832,9 @@
       <c r="N6" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="O6" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -873,6 +879,9 @@
       <c r="N7" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="O7" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -917,6 +926,9 @@
       <c r="N8" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="O8" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -959,6 +971,9 @@
         <v>32</v>
       </c>
       <c r="N9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Zeitplan/Aktueller Zeitplan.xlsx
+++ b/Zeitplan/Aktueller Zeitplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Info\Projects\UniprojektGitHub\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B90B7F-E173-4F7A-9A7C-9DD6733E521C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74095A61-5069-40F6-BC09-E3AC4CC6A5FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" xr2:uid="{3BCD9E55-44D3-4FC7-AA79-02F85DDF559B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="40">
   <si>
     <t xml:space="preserve">Tag </t>
   </si>
@@ -531,7 +531,7 @@
   <dimension ref="A1:R9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -788,6 +788,9 @@
       <c r="O5" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="P5" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
@@ -835,6 +838,9 @@
       <c r="O6" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="P6" s="2" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
@@ -882,6 +888,9 @@
       <c r="O7" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="P7" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
@@ -929,6 +938,9 @@
       <c r="O8" s="7" t="s">
         <v>32</v>
       </c>
+      <c r="P8" s="7" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
@@ -974,6 +986,9 @@
         <v>32</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Zeitplan/Aktueller Zeitplan.xlsx
+++ b/Zeitplan/Aktueller Zeitplan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Info\Projects\UniprojektGitHub\Zeitplan\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74095A61-5069-40F6-BC09-E3AC4CC6A5FC}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87E40CE8-3B1A-4718-BE6A-1B471C4CA835}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22500" windowHeight="10785" xr2:uid="{3BCD9E55-44D3-4FC7-AA79-02F85DDF559B}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="38">
   <si>
     <t xml:space="preserve">Tag </t>
   </si>
@@ -103,12 +103,6 @@
   </si>
   <si>
     <t>Woche</t>
-  </si>
-  <si>
-    <t>12.10.18</t>
-  </si>
-  <si>
-    <t>Freitag</t>
   </si>
   <si>
     <t>Fertig</t>
@@ -528,20 +522,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{184A74EC-D31E-49F0-BF6D-A9373D7AB90E}">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Q5" sqref="Q5:Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>3</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C1" t="s">
         <v>7</v>
@@ -588,11 +582,8 @@
       <c r="Q1" t="s">
         <v>24</v>
       </c>
-      <c r="R1" t="s">
-        <v>26</v>
-      </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -644,11 +635,8 @@
       <c r="Q2" t="s">
         <v>12</v>
       </c>
-      <c r="R2" t="s">
-        <v>27</v>
-      </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>25</v>
       </c>
@@ -700,296 +688,308 @@
       <c r="Q3">
         <v>6</v>
       </c>
-      <c r="R3">
-        <v>6</v>
-      </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="J4" s="3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="L4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="M4" s="5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="N4" s="2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="P4" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="Q7" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="Q8" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="N9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+      <c r="Q9" s="7" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
